--- a/Saleel Tables VER2/STUDENT Table.xlsx
+++ b/Saleel Tables VER2/STUDENT Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleel\Desktop\Saleel Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleel\Desktop\Saleel Tables VER2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="STUDENT" sheetId="1" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
@@ -1846,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>

--- a/Saleel Tables VER2/STUDENT Table.xlsx
+++ b/Saleel Tables VER2/STUDENT Table.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
   <si>
     <t>Student</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>get all student details where in their name letter 'S' is appearing.</t>
+  </si>
+  <si>
+    <t>COURSE</t>
+  </si>
+  <si>
+    <t>ID(PK)</t>
+  </si>
+  <si>
+    <t>COURSEID(FK)</t>
+  </si>
+  <si>
+    <t>MODULES</t>
+  </si>
+  <si>
+    <t>ENROLMENT</t>
+  </si>
+  <si>
+    <t>FACULTY</t>
   </si>
 </sst>
 </file>
@@ -274,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,6 +308,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1844,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,10 +1878,12 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
@@ -1870,7 +1893,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1904,7 +1927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -1921,12 +1944,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1986,7 +2009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -2003,17 +2026,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2026,8 +2049,17 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2040,8 +2072,17 @@
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -2054,8 +2095,17 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>31</v>
       </c>
@@ -2069,46 +2119,67 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>40</v>
       </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>